--- a/HW2.xlsx
+++ b/HW2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\573\A2\a2-DataVis-5ways\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293EC483-4538-4E2D-A5B5-A68A350EE2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5263ADD-8D0C-4FAD-9889-B4FA2AE329DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176" xr2:uid="{292158C1-A5CA-48E1-B843-B9B286BDB483}"/>
   </bookViews>
@@ -139,6 +139,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Assignment-2-Excel</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2226,13 +2282,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>144779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2559,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDE5B61-B851-40D0-A157-D7ED27208D29}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
